--- a/xlsx/金门大桥_intext.xlsx
+++ b/xlsx/金门大桥_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="363">
   <si>
     <t>金门大桥</t>
   </si>
@@ -29,25 +29,25 @@
     <t>旧金山市</t>
   </si>
   <si>
-    <t>政策_政策_美國_金门大桥</t>
+    <t>政策_政策_美国_金门大桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%96%80%E5%B3%B6</t>
   </si>
   <si>
-    <t>金門島</t>
+    <t>金门岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%88%E5%B6%BC</t>
   </si>
   <si>
-    <t>烈嶼</t>
+    <t>烈屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%96%80%E5%A4%A7%E6%A9%8B_(%E9%87%91%E9%96%80%E7%B8%A3)</t>
   </si>
   <si>
-    <t>金門大橋 (金門縣)</t>
+    <t>金门大桥 (金门县)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%9E%97%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬林縣 (加利福尼亞州)</t>
+    <t>马林县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%B8%E5%90%8A%E6%A9%8B</t>
   </si>
   <si>
-    <t>懸吊橋</t>
+    <t>悬吊桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E9%87%91</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E9%81%93%E8%B7%AF%E6%94%B6%E8%B2%BB%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>電子道路收費系統</t>
+    <t>电子道路收费系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/FasTrak</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%A8%99</t>
   </si>
   <si>
-    <t>地標</t>
+    <t>地标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3</t>
   </si>
   <si>
-    <t>舊金山灣</t>
+    <t>旧金山湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%8B%E5%A2%A9</t>
   </si>
   <si>
-    <t>橋墩</t>
+    <t>桥墩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%82%AC%E7%B4%A2%E6%A1%A5</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%8B%E5%A1%94</t>
   </si>
   <si>
-    <t>橋塔</t>
+    <t>桥塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%8B</t>
   </si>
   <si>
-    <t>橋</t>
+    <t>桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%B8%88</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E8%BE%9B%E7%BA%B3%E6%8F%90%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>辛辛纳提大學</t>
+    <t>辛辛纳提大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%85%B0%E5%85%8B%E6%9E%97%C2%B7%E5%BE%B7%E6%8B%89%E8%AF%BA%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
@@ -251,19 +251,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%8F%E8%89%B2</t>
   </si>
   <si>
-    <t>顏色</t>
+    <t>颜色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A9%98</t>
   </si>
   <si>
-    <t>國際橘</t>
+    <t>国际橘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%A7</t>
   </si>
   <si>
-    <t>霧</t>
+    <t>雾</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/1989_Loma_Prieta_earthquake</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%AE%BA%E5%A0%B4%E6%89%80%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>自殺場所列表</t>
+    <t>自杀场所列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%9C%9F%E6%9C%A8%E5%B7%A5%E7%A8%8B%E5%8E%86%E5%8F%B2%E5%8F%A4%E8%BF%B9</t>
@@ -287,15 +287,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1-%E5%A5%A7%E5%85%8B%E8%98%AD%E6%B5%B7%E7%81%A3%E5%A4%A7%E6%A9%8B</t>
   </si>
   <si>
-    <t>舊金山-奧克蘭海灣大橋</t>
+    <t>旧金山-奥克兰海湾大桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%96%80%E6%B5%B7%E5%B3%BD_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>金門海峽 (美國)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E6%A1%A5%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
@@ -317,19 +314,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E6%B9%BE</t>
   </si>
   <si>
-    <t>旧金山湾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E7%81%A3%E9%9A%A7%E9%81%93</t>
   </si>
   <si>
-    <t>跨灣隧道</t>
+    <t>跨湾隧道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80%E6%8D%B7%E9%81%8B%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>舊金山灣區捷運系統</t>
+    <t>旧金山湾区捷运系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%B8%83%E5%A4%A7%E5%A5%87%E8%BF%B9</t>
@@ -359,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E4%BA%9E%E5%AE%99%E6%96%AF%E7%A5%9E%E5%83%8F</t>
   </si>
   <si>
-    <t>奧林匹亞宙斯神像</t>
+    <t>奥林匹亚宙斯神像</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%80%B3%E5%BF%92%E5%BC%A5%E6%96%AF%E7%A5%9E%E5%BA%99</t>
@@ -377,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%97%E5%B3%B6%E5%A4%AA%E9%99%BD%E7%A5%9E%E9%8A%85%E5%83%8F</t>
   </si>
   <si>
-    <t>羅得島太陽神銅像</t>
+    <t>罗得岛太阳神铜像</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%E7%81%AF%E5%A1%94</t>
@@ -425,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B4%A2%E8%8F%B2%E4%BA%9E%E5%A4%A7%E6%95%99%E5%A0%82</t>
   </si>
   <si>
-    <t>聖索菲亞大教堂</t>
+    <t>圣索菲亚大教堂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%96%B0%E4%B8%83%E5%A4%A7%E5%A5%87%E8%BF%B9</t>
@@ -437,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E8%96%A9%E9%87%91%E5%AD%97%E5%A1%94%E7%BE%A4</t>
   </si>
   <si>
-    <t>吉薩金字塔群</t>
+    <t>吉萨金字塔群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E7%89%B9%E6%8B%89</t>
@@ -449,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%B4%84%E7%86%B1%E5%85%A7%E7%9B%A7%E5%9F%BA%E7%9D%A3%E5%83%8F</t>
   </si>
   <si>
-    <t>里約熱內盧基督像</t>
+    <t>里约热内卢基督像</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%98%E6%AF%94%E4%B8%98</t>
@@ -497,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%9C%8B%E5%AE%B6%E9%9B%BB%E8%A6%96%E5%A1%94</t>
   </si>
   <si>
-    <t>加拿大國家電視塔</t>
+    <t>加拿大国家电视塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%B3%95%E6%B5%B7%E5%BA%95%E9%9A%A7%E9%81%93</t>
@@ -509,19 +503,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%B8%83%E5%A4%A7%E8%87%AA%E7%84%B6%E5%A5%87%E8%A7%80</t>
   </si>
   <si>
-    <t>世界七大自然奇觀</t>
+    <t>世界七大自然奇观</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%A4%A7%E5%B3%BD%E8%B0%B7</t>
   </si>
   <si>
-    <t>科羅拉多大峽谷</t>
+    <t>科罗拉多大峡谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%A0%A1%E7%A4%81</t>
@@ -539,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%B4%84%E7%86%B1%E5%85%A7%E7%9B%A7</t>
   </si>
   <si>
-    <t>里約熱內盧</t>
+    <t>里约热内卢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E7%BA%B3%E5%B7%B4%E6%8B%89%E6%B9%BE</t>
@@ -551,19 +545,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E7%88%BE</t>
   </si>
   <si>
-    <t>尼泊爾</t>
+    <t>尼泊尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%A0%E7%A9%86%E6%9C%97%E7%91%AA%E5%B3%B0</t>
   </si>
   <si>
-    <t>珠穆朗瑪峰</t>
+    <t>珠穆朗玛峰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -593,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E6%A5%B5</t>
   </si>
   <si>
-    <t>兩極</t>
+    <t>两极</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E5%85%89</t>
@@ -617,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%8A%A0%E5%B0%94%E6%B9%96</t>
@@ -629,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E7%9F%B3%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>黃石國家公園</t>
+    <t>黄石国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%83%E5%A4%A7%E5%A5%87%E8%BF%B9%E5%8D%8F%E4%BC%9A</t>
@@ -653,9 +647,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1</t>
   </si>
   <si>
-    <t>舊金山</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/49%E9%87%8C%E8%A7%82%E5%85%89%E5%BE%84</t>
   </si>
   <si>
@@ -665,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8D%A1%E7%89%B9%E6%8B%89%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>阿爾卡特拉斯島</t>
+    <t>阿尔卡特拉斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E6%A5%9A%E8%A1%97</t>
@@ -719,15 +710,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%97%A9%E5%B8%82%E6%BC%81%E4%BA%BA%E7%A2%BC%E9%A0%AD</t>
   </si>
   <si>
-    <t>三藩市漁人碼頭</t>
+    <t>三藩市渔人码头</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%96%80%E5%A4%A7%E6%A9%8B</t>
   </si>
   <si>
-    <t>金門大橋</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E6%9B%B2%E8%8A%B1%E8%A1%97</t>
   </si>
   <si>
@@ -749,13 +737,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A9%E7%B9%AA%E5%A5%B3%E5%A3%AB</t>
   </si>
   <si>
-    <t>彩繪女士</t>
+    <t>彩绘女士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/39%E8%99%9F%E7%A2%BC%E9%A0%AD</t>
   </si>
   <si>
-    <t>39號碼頭</t>
+    <t>39号码头</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%85%AC%E5%85%B1%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -773,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%8A%80%E5%B3%B6_(%E8%88%8A%E9%87%91%E5%B1%B1)</t>
   </si>
   <si>
-    <t>金銀島 (舊金山)</t>
+    <t>金银岛 (旧金山)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%B9%BF%E5%9C%BA_(%E6%97%A7%E9%87%91%E5%B1%B1)</t>
@@ -827,13 +815,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E7%A7%91%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>加州科學院</t>
+    <t>加州科学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93%E5%AE%AE_(%E8%88%8A%E9%87%91%E5%B1%B1)</t>
   </si>
   <si>
-    <t>藝術宮 (舊金山)</t>
+    <t>艺术宫 (旧金山)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%97%A8%E5%85%AC%E5%9B%AD</t>
@@ -845,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E8%8A%B1%E6%BA%AB%E5%AE%A4</t>
   </si>
   <si>
-    <t>百花溫室</t>
+    <t>百花温室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E6%BB%8B%E7%97%85%E7%BA%AA%E5%BF%B5%E5%9B%AD</t>
@@ -869,13 +857,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E8%A5%BF%E8%8F%B2%E7%88%BE%E5%BE%B7%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>克里西菲爾德公園</t>
+    <t>克里西菲尔德公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%8B%89%E9%9A%86%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>法拉隆群島</t>
+    <t>法拉隆群岛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/McLaren_Park</t>
@@ -887,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E5%B3%B0_(%E8%88%8A%E9%87%91%E5%B1%B1)</t>
   </si>
   <si>
-    <t>雙峰 (舊金山)</t>
+    <t>双峰 (旧金山)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%B0%94%C2%B7%E6%A0%BC%E9%9B%B7%E5%8E%84%E5%A7%86%E5%B8%82%E6%94%BF%E7%A4%BC%E5%A0%82</t>
@@ -899,7 +887,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E5%AE%AE</t>
   </si>
   <si>
-    <t>牛宮</t>
+    <t>牛宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89%E7%BA%AA%E5%BF%B5%E6%AD%8C%E5%89%A7%E9%99%A2</t>
@@ -917,25 +905,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B149%E4%BA%BA</t>
   </si>
   <si>
-    <t>舊金山49人</t>
+    <t>旧金山49人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E5%B7%A8%E4%BA%BA</t>
   </si>
   <si>
-    <t>舊金山巨人</t>
+    <t>旧金山巨人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AT%26T%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>AT&amp;T球場</t>
+    <t>AT&amp;T球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%95%B7%E9%BB%83%E9%81%93%E8%9F%B9</t>
   </si>
   <si>
-    <t>首長黃道蟹</t>
+    <t>首长黄道蟹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Tadich_Grill</t>
@@ -947,19 +935,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%98%89%E4%BF%A1%E7%90%86%E8%B2%A1%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>嘉信理財集團</t>
+    <t>嘉信理财集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Gap_(%E6%9C%8D%E9%A3%BE)</t>
   </si>
   <si>
-    <t>Gap (服飾)</t>
+    <t>Gap (服饰)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E7%93%A6%E9%9B%BB%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>太平洋瓦電公司</t>
+    <t>太平洋瓦电公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%9B%BD%E9%93%B6%E8%A1%8C%E9%9B%86%E5%9B%A2</t>
@@ -971,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%97%A9%E5%B8%82%E5%9F%8E%E5%B8%82%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>三藩市城市鐵路</t>
+    <t>三藩市城市铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E8%BD%BB%E8%BD%A8</t>
@@ -983,25 +971,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80%E6%8D%B7%E9%81%8B</t>
   </si>
   <si>
-    <t>舊金山灣區捷運</t>
+    <t>旧金山湾区捷运</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E7%81%AB%E8%BB%8A</t>
   </si>
   <si>
-    <t>加州火車</t>
+    <t>加州火车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E9%90%B5</t>
   </si>
   <si>
-    <t>美鐵</t>
+    <t>美铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E8%B7%A8%E7%81%A3%E8%BD%89%E9%81%8B%E7%AB%99</t>
   </si>
   <si>
-    <t>舊金山跨灣轉運站</t>
+    <t>旧金山跨湾转运站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SamTrans</t>
@@ -1019,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%97%A9%E5%B8%82%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>三藩市國際機場</t>
+    <t>三藩市国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA%E6%97%85%E5%AE%A2%E6%8D%B7%E8%BF%90%E7%B3%BB%E7%BB%9F</t>
@@ -1103,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2849,7 +2837,7 @@
         <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2875,10 +2863,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2904,10 +2892,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2933,10 +2921,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2962,10 +2950,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F52" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G52" t="n">
         <v>3</v>
@@ -2991,10 +2979,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F53" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3020,10 +3008,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3049,10 +3037,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -3078,10 +3066,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3107,10 +3095,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3136,10 +3124,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3165,10 +3153,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3194,10 +3182,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3223,10 +3211,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3252,10 +3240,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3281,10 +3269,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3310,10 +3298,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3339,10 +3327,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3368,10 +3356,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3397,10 +3385,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3426,10 +3414,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3455,10 +3443,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3484,10 +3472,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3513,10 +3501,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3542,10 +3530,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3571,10 +3559,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F73" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3600,10 +3588,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3629,10 +3617,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3658,10 +3646,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3687,10 +3675,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3716,10 +3704,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3745,10 +3733,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3774,10 +3762,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3803,10 +3791,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3832,10 +3820,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3861,10 +3849,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3890,10 +3878,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3919,10 +3907,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3948,10 +3936,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3977,10 +3965,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4006,10 +3994,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4035,10 +4023,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4064,10 +4052,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4093,10 +4081,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4122,10 +4110,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4151,10 +4139,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4180,10 +4168,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4209,10 +4197,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4238,10 +4226,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4267,10 +4255,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4296,10 +4284,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4325,10 +4313,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4354,10 +4342,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4383,10 +4371,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4412,10 +4400,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4441,10 +4429,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4470,10 +4458,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4499,10 +4487,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4528,10 +4516,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4557,10 +4545,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>94</v>
+      </c>
+      <c r="F107" t="s">
         <v>95</v>
-      </c>
-      <c r="F107" t="s">
-        <v>96</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4615,10 +4603,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F109" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4644,10 +4632,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4673,10 +4661,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="G111" t="n">
         <v>17</v>
@@ -4702,10 +4690,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4731,10 +4719,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4760,10 +4748,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4789,10 +4777,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4818,10 +4806,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4847,10 +4835,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4876,10 +4864,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4905,10 +4893,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4934,10 +4922,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4963,10 +4951,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4992,10 +4980,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5021,10 +5009,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
         <v>23</v>
@@ -5050,10 +5038,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5079,10 +5067,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5108,10 +5096,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5137,10 +5125,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5166,10 +5154,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5195,10 +5183,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5224,10 +5212,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5253,10 +5241,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5282,10 +5270,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5311,10 +5299,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5340,10 +5328,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5369,10 +5357,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5398,10 +5386,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5427,10 +5415,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5456,10 +5444,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5485,10 +5473,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5514,10 +5502,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5543,10 +5531,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5572,10 +5560,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5601,10 +5589,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5630,10 +5618,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5659,10 +5647,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5688,10 +5676,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5717,10 +5705,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5746,10 +5734,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5775,10 +5763,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5804,10 +5792,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5833,10 +5821,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5862,10 +5850,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5891,10 +5879,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5920,10 +5908,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5949,10 +5937,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5978,10 +5966,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6007,10 +5995,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6036,10 +6024,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6065,10 +6053,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6094,10 +6082,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6123,10 +6111,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6152,10 +6140,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6181,10 +6169,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6210,10 +6198,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6239,10 +6227,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6268,10 +6256,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6297,10 +6285,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6326,10 +6314,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6355,10 +6343,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F169" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6384,10 +6372,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F170" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6413,10 +6401,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F171" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6442,10 +6430,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F172" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6471,10 +6459,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F173" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6500,10 +6488,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F174" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6529,10 +6517,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F175" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6558,10 +6546,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6587,10 +6575,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6616,10 +6604,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6645,10 +6633,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6674,10 +6662,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6703,10 +6691,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6732,10 +6720,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6761,10 +6749,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6790,10 +6778,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6819,10 +6807,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6848,10 +6836,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G186" t="n">
         <v>3</v>
@@ -6877,10 +6865,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F187" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6906,10 +6894,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F188" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
